--- a/Resources/test1.xlsx
+++ b/Resources/test1.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="LoginTest" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -19,16 +19,92 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">TestID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ErrorMessage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC01_ValidLogin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with valid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YATIN999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC02_InValidLogin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with invalid credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YATIN99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday@1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrect user name or password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC03_LoginCreateAccount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with valid credentials from Create Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JamesB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test321</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -44,6 +120,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,8 +175,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,14 +319,119 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="28.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1243</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1244</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1245</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="Monday@123"/>
+    <hyperlink ref="E3" r:id="rId2" display="Monday@1234"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
